--- a/実行結果.xlsx
+++ b/実行結果.xlsx
@@ -116,7 +116,7 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>20200515162948</x:t>
+    <x:t>20200515150842</x:t>
   </x:si>
   <x:si>
     <x:t>DLC0002QD86W2D</x:t>
